--- a/nms-genes-analysis/data/Hypoth_SO_UBI.xlsx
+++ b/nms-genes-analysis/data/Hypoth_SO_UBI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12315" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="2" r:id="rId1"/>
@@ -15,9 +15,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="43">
   <si>
-    <t>Analysis of the left (LdN) and right (RdN) side dominant gene regulatory networks in the hypothalamus</t>
+    <t>SOURCE FILE for Figures 4,6; Figure 4—figure supplements 5,6,9,11; Figure 6—figure supplement 1.</t>
+  </si>
+  <si>
+    <t>Gene expression levels in the left and right hypothalamus of the sham surgery and UBI rats.</t>
+  </si>
+  <si>
+    <t>mRNA levels were normalized to geometric mean of expression levels of two control genes Actb and Gapdh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation type </t>
+  </si>
+  <si>
+    <t>cSMC = UBI</t>
+  </si>
+  <si>
+    <t>SO = sham operation</t>
+  </si>
+  <si>
+    <t>Measurement side</t>
+  </si>
+  <si>
+    <t>L. left; R, right</t>
   </si>
   <si>
     <t>Rat ID</t>
@@ -128,15 +149,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +177,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,46 +190,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,39 +206,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,8 +237,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,7 +313,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -334,7 +361,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,25 +493,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,127 +517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,31 +609,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,17 +632,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,11 +671,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,152 +710,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -901,58 +928,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1223,21 +1257,62 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="112.714285714286" style="23" customWidth="1"/>
     <col min="2" max="16384" width="9.14285714285714" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15" spans="1:1">
+    <row r="1" spans="1:1">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="24" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="24"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:1">
+      <c r="A8" s="27"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="25" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1251,8 +1326,8 @@
   <sheetPr/>
   <dimension ref="A1:AF47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF19" sqref="A1:AF47"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1263,97 +1338,97 @@
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AF1" s="23"/>
     </row>
@@ -1362,10 +1437,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D2" s="7">
         <v>0.81604</v>
@@ -1458,10 +1533,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D3" s="11">
         <v>0.96889</v>
@@ -1554,10 +1629,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D4" s="11">
         <v>1.01316</v>
@@ -1650,10 +1725,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D5" s="11">
         <v>0.78165</v>
@@ -1746,10 +1821,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D6" s="11">
         <v>1.02651</v>
@@ -1842,10 +1917,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D7" s="11">
         <v>0.825</v>
@@ -1938,10 +2013,10 @@
         <v>19</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
@@ -1978,10 +2053,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D9" s="11">
         <v>0.82572</v>
@@ -2074,10 +2149,10 @@
         <v>21</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D10" s="11">
         <v>0.8413</v>
@@ -2170,10 +2245,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D11" s="11">
         <v>0.77282</v>
@@ -2266,10 +2341,10 @@
         <v>23</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D12" s="15">
         <v>0.78774</v>
@@ -2362,10 +2437,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D13" s="17">
         <v>0.81345</v>
@@ -2458,10 +2533,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D14" s="17">
         <v>0.99388</v>
@@ -2554,10 +2629,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D15" s="17">
         <v>0.8131</v>
@@ -2650,10 +2725,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D16" s="17">
         <v>0.92607</v>
@@ -2746,10 +2821,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D17" s="17">
         <v>1.4096</v>
@@ -2842,10 +2917,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D18" s="17">
         <v>0.84903</v>
@@ -2938,10 +3013,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D19" s="17">
         <v>0.85908</v>
@@ -3034,10 +3109,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D20" s="17">
         <v>0.89132</v>
@@ -3130,10 +3205,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D21" s="17">
         <v>1.15966</v>
@@ -3226,10 +3301,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D22" s="17">
         <v>1.11286</v>
@@ -3322,10 +3397,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D23" s="17">
         <v>0.66527</v>
@@ -3418,10 +3493,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D24" s="7">
         <v>0.73853</v>
@@ -3514,10 +3589,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D25" s="11">
         <v>0.99246</v>
@@ -3610,10 +3685,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D26" s="11">
         <v>0.73929</v>
@@ -3706,10 +3781,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D27" s="11">
         <v>0.42111</v>
@@ -3802,10 +3877,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D28" s="11">
         <v>0.39847</v>
@@ -3898,10 +3973,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D29" s="11">
         <v>0.43643</v>
@@ -3994,10 +4069,10 @@
         <v>7</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D30" s="11">
         <v>0.80548</v>
@@ -4090,10 +4165,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D31" s="11">
         <v>0.77237</v>
@@ -4186,10 +4261,10 @@
         <v>9</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D32" s="11">
         <v>0.69314</v>
@@ -4282,10 +4357,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D33" s="11">
         <v>0.52103</v>
@@ -4378,10 +4453,10 @@
         <v>11</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D34" s="11">
         <v>0.56558</v>
@@ -4474,10 +4549,10 @@
         <v>12</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D35" s="11">
         <v>0.52403</v>
@@ -4570,10 +4645,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D36" s="11">
         <v>0.83295</v>
@@ -4666,10 +4741,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D37" s="11">
         <v>0.72183</v>
@@ -4762,10 +4837,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D38" s="11">
         <v>0.95684</v>
@@ -4858,10 +4933,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D39" s="11">
         <v>0.86101</v>
@@ -4954,10 +5029,10 @@
         <v>5</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D40" s="11">
         <v>0.64203</v>
@@ -5050,10 +5125,10 @@
         <v>6</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D41" s="11">
         <v>0.76042</v>
@@ -5146,10 +5221,10 @@
         <v>7</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D42" s="11">
         <v>0.66702</v>
@@ -5242,10 +5317,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D43" s="11">
         <v>0.94826</v>
@@ -5338,10 +5413,10 @@
         <v>9</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D44" s="11">
         <v>0.78701</v>
@@ -5434,10 +5509,10 @@
         <v>10</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D45" s="11">
         <v>0.67637</v>
@@ -5530,10 +5605,10 @@
         <v>11</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D46" s="11">
         <v>0.98447</v>
@@ -5626,10 +5701,10 @@
         <v>12</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D47" s="15">
         <v>0.83143</v>
